--- a/stocks.xlsx
+++ b/stocks.xlsx
@@ -11,10 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="18">
-  <si>
-    <t>Table 1</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="17">
   <si>
     <t>Symbol</t>
   </si>
@@ -77,7 +74,7 @@
     <numFmt numFmtId="60" formatCode="#,##0.00%"/>
     <numFmt numFmtId="61" formatCode="[$￥-804]#,##0.00"/>
   </numFmts>
-  <fonts count="5">
+  <fonts count="6">
     <font>
       <sz val="10"/>
       <color indexed="8"/>
@@ -87,6 +84,11 @@
       <sz val="12"/>
       <color indexed="8"/>
       <name val="Helvetica Neue"/>
+    </font>
+    <font>
+      <sz val="15"/>
+      <color indexed="8"/>
+      <name val="Calibri"/>
     </font>
     <font>
       <b val="1"/>
@@ -105,7 +107,7 @@
       <name val="Avenir Next Regular"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -124,8 +126,14 @@
         <bgColor auto="1"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor indexed="13"/>
+        <bgColor auto="1"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="8">
+  <borders count="17">
     <border>
       <left/>
       <right/>
@@ -238,65 +246,176 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top style="thin">
+        <color indexed="10"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color indexed="14"/>
+      </left>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="14"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="14"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="18">
+  <cellXfs count="26">
     <xf numFmtId="0" fontId="0" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" applyNumberFormat="0" applyFont="1" applyFill="0" applyBorder="0" applyAlignment="1" applyProtection="0">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="49" fontId="2" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="3" fillId="2" borderId="1" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="2" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="3" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="3" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="4" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="4" fillId="3" borderId="5" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="49" fontId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="49" fontId="5" fillId="4" borderId="6" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
-    <xf numFmtId="59" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="60" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="61" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="49" fontId="0" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="0" applyBorder="1" applyAlignment="1" applyProtection="0">
+    <xf numFmtId="59" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="60" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="61" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="0" fillId="4" borderId="7" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="8" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="9" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="10" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="11" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="12" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="13" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="14" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="15" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
+      <alignment vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="16" applyNumberFormat="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1" applyProtection="0">
       <alignment vertical="top" wrapText="1"/>
     </xf>
   </cellXfs>
@@ -320,6 +439,8 @@
       <rgbColor rgb="ffa5a5a5"/>
       <rgbColor rgb="ff3f3f3f"/>
       <rgbColor rgb="ffdbdbdb"/>
+      <rgbColor rgb="ffffffff"/>
+      <rgbColor rgb="ffaaaaaa"/>
     </indexedColors>
   </colors>
 </styleSheet>
@@ -336,10 +457,10 @@
         <a:srgbClr val="FFFFFF"/>
       </a:lt1>
       <a:dk2>
-        <a:srgbClr val="5E5E5E"/>
+        <a:srgbClr val="A7A7A7"/>
       </a:dk2>
       <a:lt2>
-        <a:srgbClr val="D5D5D5"/>
+        <a:srgbClr val="535353"/>
       </a:lt2>
       <a:accent1>
         <a:srgbClr val="00A2FF"/>
@@ -516,11 +637,14 @@
     <a:spDef>
       <a:spPr>
         <a:solidFill>
-          <a:srgbClr val="000000"/>
+          <a:srgbClr val="FFFFFF"/>
         </a:solidFill>
-        <a:ln w="12700" cap="flat">
-          <a:noFill/>
-          <a:miter lim="400000"/>
+        <a:ln w="25400" cap="flat">
+          <a:solidFill>
+            <a:schemeClr val="accent1"/>
+          </a:solidFill>
+          <a:prstDash val="solid"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -529,33 +653,33 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="ctr" defTabSz="584200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
-          <a:lnSpc>
-            <a:spcPct val="100000"/>
-          </a:lnSpc>
-          <a:spcBef>
-            <a:spcPts val="0"/>
-          </a:spcBef>
-          <a:spcAft>
-            <a:spcPts val="0"/>
-          </a:spcAft>
-          <a:buClrTx/>
-          <a:buSzTx/>
-          <a:buFontTx/>
-          <a:buNone/>
-          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1200" u="none" kumimoji="0" normalizeH="0">
-            <a:ln>
-              <a:noFill/>
-            </a:ln>
-            <a:solidFill>
-              <a:srgbClr val="FFFFFF"/>
-            </a:solidFill>
-            <a:effectLst/>
-            <a:uFillTx/>
-            <a:latin typeface="Helvetica Neue Medium"/>
-            <a:ea typeface="Helvetica Neue Medium"/>
-            <a:cs typeface="Helvetica Neue Medium"/>
-            <a:sym typeface="Helvetica Neue Medium"/>
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+          <a:lnSpc>
+            <a:spcPct val="100000"/>
+          </a:lnSpc>
+          <a:spcBef>
+            <a:spcPts val="0"/>
+          </a:spcBef>
+          <a:spcAft>
+            <a:spcPts val="0"/>
+          </a:spcAft>
+          <a:buClrTx/>
+          <a:buSzTx/>
+          <a:buFontTx/>
+          <a:buNone/>
+          <a:defRPr b="0" baseline="0" cap="none" i="0" spc="0" strike="noStrike" sz="1100" u="none" kumimoji="0" normalizeH="0">
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:solidFill>
+              <a:srgbClr val="000000"/>
+            </a:solidFill>
+            <a:effectLst/>
+            <a:uFillTx/>
+            <a:latin typeface="+mn-lt"/>
+            <a:ea typeface="+mn-ea"/>
+            <a:cs typeface="+mn-cs"/>
+            <a:sym typeface="Helvetica Neue"/>
           </a:defRPr>
         </a:defPPr>
         <a:lvl1pPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="1" hangingPunct="0">
@@ -794,12 +918,12 @@
     <a:lnDef>
       <a:spPr>
         <a:noFill/>
-        <a:ln w="12700" cap="flat">
+        <a:ln w="25400" cap="flat">
           <a:solidFill>
-            <a:srgbClr val="000000"/>
+            <a:schemeClr val="accent1"/>
           </a:solidFill>
           <a:prstDash val="solid"/>
-          <a:miter lim="400000"/>
+          <a:round/>
         </a:ln>
         <a:effectLst/>
         <a:sp3d/>
@@ -1080,7 +1204,7 @@
         <a:spAutoFit/>
       </a:bodyPr>
       <a:lstStyle>
-        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="457200" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
+        <a:defPPr marL="0" marR="0" indent="0" algn="l" defTabSz="914400" rtl="0" fontAlgn="auto" latinLnBrk="0" hangingPunct="0">
           <a:lnSpc>
             <a:spcPct val="100000"/>
           </a:lnSpc>
@@ -1348,11 +1472,9 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A2:J5"/>
+  <dimension ref="A1:J9"/>
   <sheetViews>
-    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1">
-      <pane topLeftCell="B3" xSplit="1" ySplit="2" activePane="bottomRight" state="frozen"/>
-    </sheetView>
+    <sheetView workbookViewId="0" showGridLines="0" defaultGridColor="1"/>
   </sheetViews>
   <sheetFormatPr defaultColWidth="16.3333" defaultRowHeight="19.9" customHeight="1" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
@@ -1360,155 +1482,198 @@
     <col min="11" max="16384" width="16.3516" style="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" ht="27.65" customHeight="1">
+    <row r="1" ht="20.25" customHeight="1">
       <c r="A1" t="s" s="2">
         <v>0</v>
       </c>
-      <c r="B1" s="2"/>
-      <c r="C1" s="2"/>
-      <c r="D1" s="2"/>
-      <c r="E1" s="2"/>
-      <c r="F1" s="2"/>
-      <c r="G1" s="2"/>
-      <c r="H1" s="2"/>
-      <c r="I1" s="2"/>
-      <c r="J1" s="2"/>
+      <c r="B1" t="s" s="2">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s" s="2">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s" s="2">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s" s="2">
+        <v>4</v>
+      </c>
+      <c r="F1" t="s" s="2">
+        <v>5</v>
+      </c>
+      <c r="G1" t="s" s="2">
+        <v>6</v>
+      </c>
+      <c r="H1" t="s" s="2">
+        <v>7</v>
+      </c>
+      <c r="I1" t="s" s="2">
+        <v>8</v>
+      </c>
+      <c r="J1" t="s" s="2">
+        <v>9</v>
+      </c>
     </row>
-    <row r="2" ht="20.25" customHeight="1">
+    <row r="2" ht="22.55" customHeight="1">
       <c r="A2" t="s" s="3">
-        <v>1</v>
-      </c>
-      <c r="B2" t="s" s="3">
+        <v>10</v>
+      </c>
+      <c r="B2" t="s" s="4">
+        <v>11</v>
+      </c>
+      <c r="C2" s="5">
+        <v>169.3</v>
+      </c>
+      <c r="D2" s="5">
+        <v>-0.58999634</v>
+      </c>
+      <c r="E2" s="6">
+        <v>-0.003472814</v>
+      </c>
+      <c r="F2" s="7">
+        <v>120</v>
+      </c>
+      <c r="G2" s="8">
+        <v>0.833333333333333</v>
+      </c>
+      <c r="H2" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="I2" t="s" s="9">
+        <v>12</v>
+      </c>
+      <c r="J2" t="s" s="9">
+        <f>_xlfn.IFERROR(I2-H2,"–")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="3" ht="36.35" customHeight="1">
+      <c r="A3" t="s" s="10">
+        <v>13</v>
+      </c>
+      <c r="B3" t="s" s="11">
+        <v>14</v>
+      </c>
+      <c r="C3" s="12">
+        <v>135.7</v>
+      </c>
+      <c r="D3" s="12">
+        <v>-0.55000305</v>
+      </c>
+      <c r="E3" s="13">
+        <v>-0.0040367195</v>
+      </c>
+      <c r="F3" s="14">
+        <v>50</v>
+      </c>
+      <c r="G3" s="15">
         <v>2</v>
       </c>
-      <c r="C2" t="s" s="3">
+      <c r="H3" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="I3" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="J3" t="s" s="16">
+        <f>_xlfn.IFERROR(I3-H3,"–")</f>
+        <v>12</v>
+      </c>
+    </row>
+    <row r="4" ht="22.35" customHeight="1">
+      <c r="A4" t="s" s="10">
+        <v>15</v>
+      </c>
+      <c r="B4" t="s" s="11">
+        <v>16</v>
+      </c>
+      <c r="C4" s="12">
+        <v>94.12</v>
+      </c>
+      <c r="D4" s="12">
+        <v>0.1800003</v>
+      </c>
+      <c r="E4" s="13">
+        <v>0.0019161198</v>
+      </c>
+      <c r="F4" s="14">
+        <v>20</v>
+      </c>
+      <c r="G4" s="15">
         <v>3</v>
       </c>
-      <c r="D2" t="s" s="3">
-        <v>4</v>
-      </c>
-      <c r="E2" t="s" s="3">
-        <v>5</v>
-      </c>
-      <c r="F2" t="s" s="3">
-        <v>6</v>
-      </c>
-      <c r="G2" t="s" s="3">
-        <v>7</v>
-      </c>
-      <c r="H2" t="s" s="3">
-        <v>8</v>
-      </c>
-      <c r="I2" t="s" s="3">
-        <v>9</v>
-      </c>
-      <c r="J2" t="s" s="3">
-        <v>10</v>
+      <c r="H4" s="15">
+        <v>0.0057483594</v>
+      </c>
+      <c r="I4" t="s" s="16">
+        <v>12</v>
+      </c>
+      <c r="J4" t="s" s="16">
+        <f>_xlfn.IFERROR(I4-H4,"–")</f>
+        <v>12</v>
       </c>
     </row>
-    <row r="3" ht="22.55" customHeight="1">
-      <c r="A3" t="s" s="4">
-        <v>11</v>
-      </c>
-      <c r="B3" t="s" s="5">
-        <v>12</v>
-      </c>
-      <c r="C3" s="6">
-        <v>169.3</v>
-      </c>
-      <c r="D3" s="6">
-        <v>-0.58999634</v>
-      </c>
-      <c r="E3" s="7">
-        <v>-0.003472814</v>
-      </c>
-      <c r="F3" s="8">
-        <v>120</v>
-      </c>
-      <c r="G3" s="9">
-        <v>0.833333333333333</v>
-      </c>
-      <c r="H3" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="I3" t="s" s="10">
-        <v>13</v>
-      </c>
-      <c r="J3" t="s" s="10">
-        <f>_xlfn.IFERROR(I3-H3,"–")</f>
-        <v>13</v>
-      </c>
+    <row r="5" ht="14.7" customHeight="1">
+      <c r="A5" s="17"/>
+      <c r="B5" s="18"/>
+      <c r="C5" s="18"/>
+      <c r="D5" s="18"/>
+      <c r="E5" s="18"/>
+      <c r="F5" s="18"/>
+      <c r="G5" s="18"/>
+      <c r="H5" s="18"/>
+      <c r="I5" s="18"/>
+      <c r="J5" s="19"/>
     </row>
-    <row r="4" ht="36.35" customHeight="1">
-      <c r="A4" t="s" s="11">
-        <v>14</v>
-      </c>
-      <c r="B4" t="s" s="12">
-        <v>15</v>
-      </c>
-      <c r="C4" s="13">
-        <v>135.7</v>
-      </c>
-      <c r="D4" s="13">
-        <v>-0.55000305</v>
-      </c>
-      <c r="E4" s="14">
-        <v>-0.0040367195</v>
-      </c>
-      <c r="F4" s="15">
-        <v>50</v>
-      </c>
-      <c r="G4" s="16">
-        <v>2</v>
-      </c>
-      <c r="H4" t="s" s="17">
-        <v>13</v>
-      </c>
-      <c r="I4" t="s" s="17">
-        <v>13</v>
-      </c>
-      <c r="J4" t="s" s="17">
-        <f>_xlfn.IFERROR(I4-H4,"–")</f>
-        <v>13</v>
-      </c>
+    <row r="6" ht="14.7" customHeight="1">
+      <c r="A6" s="20"/>
+      <c r="B6" s="21"/>
+      <c r="C6" s="21"/>
+      <c r="D6" s="21"/>
+      <c r="E6" s="21"/>
+      <c r="F6" s="21"/>
+      <c r="G6" s="21"/>
+      <c r="H6" s="21"/>
+      <c r="I6" s="21"/>
+      <c r="J6" s="22"/>
     </row>
-    <row r="5" ht="22.35" customHeight="1">
-      <c r="A5" t="s" s="11">
-        <v>16</v>
-      </c>
-      <c r="B5" t="s" s="12">
-        <v>17</v>
-      </c>
-      <c r="C5" s="13">
-        <v>94.12</v>
-      </c>
-      <c r="D5" s="13">
-        <v>0.1800003</v>
-      </c>
-      <c r="E5" s="14">
-        <v>0.0019161198</v>
-      </c>
-      <c r="F5" s="15">
-        <v>20</v>
-      </c>
-      <c r="G5" s="16">
-        <v>3</v>
-      </c>
-      <c r="H5" s="16">
-        <v>0.0057483594</v>
-      </c>
-      <c r="I5" t="s" s="17">
-        <v>13</v>
-      </c>
-      <c r="J5" t="s" s="17">
-        <f>_xlfn.IFERROR(I5-H5,"–")</f>
-        <v>13</v>
-      </c>
+    <row r="7" ht="14.7" customHeight="1">
+      <c r="A7" s="20"/>
+      <c r="B7" s="21"/>
+      <c r="C7" s="21"/>
+      <c r="D7" s="21"/>
+      <c r="E7" s="21"/>
+      <c r="F7" s="21"/>
+      <c r="G7" s="21"/>
+      <c r="H7" s="21"/>
+      <c r="I7" s="21"/>
+      <c r="J7" s="22"/>
+    </row>
+    <row r="8" ht="14.7" customHeight="1">
+      <c r="A8" s="20"/>
+      <c r="B8" s="21"/>
+      <c r="C8" s="21"/>
+      <c r="D8" s="21"/>
+      <c r="E8" s="21"/>
+      <c r="F8" s="21"/>
+      <c r="G8" s="21"/>
+      <c r="H8" s="21"/>
+      <c r="I8" s="21"/>
+      <c r="J8" s="22"/>
+    </row>
+    <row r="9" ht="14.7" customHeight="1">
+      <c r="A9" s="23"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="24"/>
+      <c r="D9" s="24"/>
+      <c r="E9" s="24"/>
+      <c r="F9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="24"/>
+      <c r="J9" s="25"/>
     </row>
   </sheetData>
-  <mergeCells count="1">
-    <mergeCell ref="A1:J1"/>
-  </mergeCells>
   <pageMargins left="0.5" right="0.5" top="0.75" bottom="0.75" header="0.277778" footer="0.277778"/>
   <pageSetup firstPageNumber="1" fitToHeight="1" fitToWidth="1" scale="72" useFirstPageNumber="0" orientation="portrait" pageOrder="downThenOver"/>
   <headerFooter>
